--- a/ProLeiTAG/Massafra/Update/Values/dbIdcImport/S14.xlsx
+++ b/ProLeiTAG/Massafra/Update/Values/dbIdcImport/S14.xlsx
@@ -8,25 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dso/ProLeiT/Massafra/MassafraSQL/ProLeiTAG/Massafra/Update/Values/dbIdcImport/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6979E1-6475-4745-BA4C-5A4E3B032180}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC3C52A-7E91-9C4D-85DC-7D5D2BE246A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16280" yWindow="-21140" windowWidth="25400" windowHeight="21140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15960" yWindow="-21140" windowWidth="25460" windowHeight="20880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LiTSeqProfileParam" sheetId="2" r:id="rId1"/>
     <sheet name="LiTSeqSupplValues" sheetId="5" r:id="rId2"/>
     <sheet name="LiTSeqSupplFunctions" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -38,7 +32,7 @@
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -82,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -102,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -128,7 +122,7 @@
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -150,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -185,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -205,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -227,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -253,7 +247,7 @@
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -275,7 +269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -294,7 +288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -319,7 +313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -335,7 +329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -356,7 +350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -378,7 +372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -399,7 +393,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="127">
   <si>
     <t>LiTProfileParam</t>
   </si>
@@ -488,9 +482,6 @@
     <t>Report mode [23]</t>
   </si>
   <si>
-    <t>01 Production</t>
-  </si>
-  <si>
     <t>sec</t>
   </si>
   <si>
@@ -530,9 +521,6 @@
     <t>Counter</t>
   </si>
   <si>
-    <t>E404.4</t>
-  </si>
-  <si>
     <t>RM_None</t>
   </si>
   <si>
@@ -758,9 +746,6 @@
     <t>11: MES: Time from mashing till Rest/Heat</t>
   </si>
   <si>
-    <t>Function 011</t>
-  </si>
-  <si>
     <t>Value 025</t>
   </si>
   <si>
@@ -780,6 +765,15 @@
   </si>
   <si>
     <t>l</t>
+  </si>
+  <si>
+    <t>[PROFILE_01]</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Function 11</t>
   </si>
 </sst>
 </file>
@@ -1157,12 +1151,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1305,64 +1299,62 @@
         <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="D3" s="3">
         <v>8</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="M3" s="6"/>
       <c r="N3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P3" s="3">
         <v>0</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T3" s="3">
         <v>1</v>
       </c>
       <c r="U3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V3" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1372,12 +1364,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3:E4"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A3:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1405,10 +1397,10 @@
   <sheetData>
     <row r="1" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
@@ -1440,173 +1432,173 @@
     </row>
     <row r="2" spans="1:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="G2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="N2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
-        <v>18</v>
+      <c r="B3" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q3" s="3">
         <v>1</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
-        <v>18</v>
+      <c r="B4" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="H4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="M4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="3">
         <v>1</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -1617,52 +1609,52 @@
         <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F5" s="3">
         <v>10</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="3">
         <v>1</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
@@ -1673,52 +1665,52 @@
         <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F6" s="3">
         <v>14</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>1</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>1</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="S6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -1729,52 +1721,52 @@
         <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F7" s="3">
         <v>15</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>1</v>
+      </c>
+      <c r="R7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>1</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="S7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
@@ -1785,52 +1777,52 @@
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F8" s="3">
         <v>20</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="3">
         <v>2</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -1841,52 +1833,52 @@
         <v>14</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F9" s="3">
         <v>23</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q9" s="3">
         <v>1</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -1897,52 +1889,52 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F10" s="3">
         <v>45</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="3">
         <v>1</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
@@ -1953,52 +1945,52 @@
         <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F11" s="3">
         <v>60</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>1</v>
+      </c>
+      <c r="R11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>1</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="S11" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
@@ -2009,52 +2001,52 @@
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F12" s="3">
         <v>61</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>1</v>
+      </c>
+      <c r="R12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>1</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="S12" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2064,12 +2056,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="A3:XFD4"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2101,10 +2093,10 @@
   <sheetData>
     <row r="1" spans="1:23" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
@@ -2140,73 +2132,73 @@
     </row>
     <row r="2" spans="1:23" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="M2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="S2" s="4" t="s">
         <v>25</v>
       </c>
       <c r="T2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="U2" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="V2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="W2" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -2220,64 +2212,64 @@
         <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="H3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="J3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O3" s="3">
         <v>0</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S3" s="3">
         <v>1</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -2291,64 +2283,64 @@
         <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="H4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O4" s="3">
         <v>0</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S4" s="3">
         <v>1</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
